--- a/output/be-practitionerrole.xlsx
+++ b/output/be-practitionerrole.xlsx
@@ -544,7 +544,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/CD-HCPARTY</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/cd-hcparty</t>
   </si>
   <si>
     <t>Coding.system</t>
